--- a/sketches/sketch_sep21_MicroSDCard_Data/Dados_Datalogger_TempHum.xlsx
+++ b/sketches/sketch_sep21_MicroSDCard_Data/Dados_Datalogger_TempHum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geraldo Fernandes\Documents\GitHub\DataLogger_TempHum\sketches\sketch_sep21_MicroSDCard_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D-Maker\Documents\GitHub\DataLogger_TempHum\sketches\sketch_sep21_MicroSDCard_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AFC0B9-EBC9-4919-B0A9-35422CA2A3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28653C1-382E-4EAF-AD9E-F892546832CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{9BAB6BEA-9899-4564-8270-5E589F94143A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9BAB6BEA-9899-4564-8270-5E589F94143A}"/>
   </bookViews>
   <sheets>
     <sheet name="DADOS" sheetId="2" r:id="rId1"/>
@@ -107,7 +107,7 @@
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -162,7 +162,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1183,7 +1183,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445032863"/>
@@ -1245,7 +1245,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2125341615"/>
@@ -1295,7 +1295,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1346,7 +1346,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2367,7 +2367,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1261279039"/>
@@ -2430,7 +2430,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="449645151"/>
@@ -2478,7 +2478,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4001,18 +4001,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B735417-5DB6-4462-A0D9-98431D9A1443}">
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45190.956712962965</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45190.957407407404</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45190.958101851851</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45190.958796296298</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45190.959490740737</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45190.960185185184</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45190.960879629631</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45190.961574074077</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45190.962280092594</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45190.96297453704</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45190.96366898148</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45190.964363425926</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45190.965057870373</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45190.965752314813</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45190.966446759259</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45190.967141203706</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45190.967835648145</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45190.968530092592</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45190.969224537039</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45190.969918981478</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45190.970613425925</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45190.971307870372</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45190.972002314818</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45190.972696759258</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45190.973391203705</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45190.974085648151</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45190.974780092591</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45190.975474537037</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45190.976168981484</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45190.976863425924</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45190.97755787037</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45190.978252314817</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45190.978946759256</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45190.979641203703</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45190.98033564815</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45190.981030092589</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45190.981736111113</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45190.982430555552</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45190.983124999999</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45190.983819444446</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45190.984513888892</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45190.985208333332</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45190.985902777778</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45190.986597222225</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45190.987291666665</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45190.987986111111</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45190.988680555558</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45190.989374999997</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45190.990069444444</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45190.990763888891</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45190.99145833333</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45190.992152777777</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45190.992847222224</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45190.993541666663</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45190.99423611111</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45190.994930555556</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45190.995625000003</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45190.996319444443</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45190.997013888889</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45190.997708333336</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45190.998402777775</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45190.999097222222</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45190.999791666669</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45191.000486111108</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45191.001180555555</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45191.001886574071</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45191.002581018518</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45191.003275462965</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45191.003969907404</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45191.004664351851</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45191.005358796298</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45191.006053240744</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45191.006747685184</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45191.00744212963</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>45191.008136574077</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45191.008831018517</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45191.009525462963</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45191.01021990741</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45191.010914351849</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45191.011608796296</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45191.012303240743</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45191.012997685182</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45191.013692129629</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45191.014386574076</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45191.015081018515</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45191.015775462962</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>45191.016469907408</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>45191.017164351855</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45191.017858796295</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>45191.018553240741</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>45191.019247685188</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>45191.019942129627</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>45191.020636574074</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>45191.021331018521</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>45191.02202546296</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>45191.022719907407</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>45191.023425925923</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>45191.02412037037</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>45191.024814814817</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>45191.025509259256</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>45191.026203703703</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>45191.026898148149</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>45191.027592592596</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>45191.028287037036</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>45191.028981481482</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>45191.029675925929</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45191.030370370368</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>45191.031064814815</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>45191.031759259262</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>45191.032453703701</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>45191.033148148148</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>45191.033842592595</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>45191.034537037034</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>45191.035231481481</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>45191.035925925928</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45191.036620370367</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45191.037314814814</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45191.03800925926</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45191.038703703707</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45191.039398148147</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45191.040092592593</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45191.04078703704</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45191.041481481479</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45191.042175925926</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45191.042870370373</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45191.043576388889</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45191.044270833336</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45191.044965277775</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45191.045659722222</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45191.046354166669</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45191.047048611108</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45191.047743055555</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45191.048437500001</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45191.049131944441</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45191.049826388888</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45191.050520833334</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45191.051215277781</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45191.05190972222</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45191.052604166667</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45191.053298611114</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45191.053993055553</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45191.0546875</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45191.055381944447</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45191.056076388886</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45191.056770833333</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45191.05746527778</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45191.058159722219</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45191.058854166666</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45191.059548611112</v>
       </c>
